--- a/2010_Election_Results_TNT_clean.xlsx
+++ b/2010_Election_Results_TNT_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosspingatore/Desktop/Practicum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyl/Desktop/Other/proj/Inclusion_by_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C9611-E5A6-B141-BA73-8B2A9F3DAE17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247F4C3-C37A-E940-9B54-C1AB00273525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38460" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{92ED79AB-027C-6E40-8484-828CF8073DBC}"/>
+    <workbookView xWindow="-5280" yWindow="0" windowWidth="18500" windowHeight="16000" xr2:uid="{92ED79AB-027C-6E40-8484-828CF8073DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2010_Election_Results_TNT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="803">
   <si>
     <t>Electoral_Dist</t>
   </si>
@@ -2321,6 +2321,129 @@
   </si>
   <si>
     <t xml:space="preserve">BICHE </t>
+  </si>
+  <si>
+    <t>D'Abadie/O'Meara</t>
+  </si>
+  <si>
+    <t>1806_02</t>
+  </si>
+  <si>
+    <t>Pine Ha en S.D.A Primary School</t>
+  </si>
+  <si>
+    <t>LP #18 LA Resource Road South</t>
+  </si>
+  <si>
+    <t>D'Abadie</t>
+  </si>
+  <si>
+    <t>1806_03</t>
+  </si>
+  <si>
+    <t>1806_04</t>
+  </si>
+  <si>
+    <t>1950_01</t>
+  </si>
+  <si>
+    <t>1950_02</t>
+  </si>
+  <si>
+    <t>1955_01</t>
+  </si>
+  <si>
+    <t>1955_02</t>
+  </si>
+  <si>
+    <t>D'Abadie Government Primary School</t>
+  </si>
+  <si>
+    <t>LP 557 Eastern Main Road</t>
+  </si>
+  <si>
+    <t>1955_03</t>
+  </si>
+  <si>
+    <t>1955_04</t>
+  </si>
+  <si>
+    <t>1960_01</t>
+  </si>
+  <si>
+    <t>1960_02</t>
+  </si>
+  <si>
+    <t>1960_03</t>
+  </si>
+  <si>
+    <t>1961_01</t>
+  </si>
+  <si>
+    <t>1961_02</t>
+  </si>
+  <si>
+    <t>Ministry of Works and Transport</t>
+  </si>
+  <si>
+    <t>St. George East, O'Meara Road</t>
+  </si>
+  <si>
+    <t>1965_01</t>
+  </si>
+  <si>
+    <t>1965_02</t>
+  </si>
+  <si>
+    <t>1966_01</t>
+  </si>
+  <si>
+    <t>1966_02</t>
+  </si>
+  <si>
+    <t>*1967</t>
+  </si>
+  <si>
+    <t>1969_1</t>
+  </si>
+  <si>
+    <t>Malabar Government Primary School</t>
+  </si>
+  <si>
+    <t>Arima Presbytarian Primary School</t>
+  </si>
+  <si>
+    <t>Larry Gomes Stadium</t>
+  </si>
+  <si>
+    <t>Malabar Secondary School</t>
+  </si>
+  <si>
+    <t>Pomegranate Avenue, Phase 1</t>
+  </si>
+  <si>
+    <t>Pomegranate Avenue, Phase 2</t>
+  </si>
+  <si>
+    <t>Tupuna Road</t>
+  </si>
+  <si>
+    <t>Nutones Bouleard</t>
+  </si>
+  <si>
+    <t>Flamingo Boulevard, Phase 4, Section 2</t>
+  </si>
+  <si>
+    <t>Flamingo Boulevard, Phase 4, Section 3</t>
+  </si>
+  <si>
+    <t>Malabar, Arima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malabar </t>
+  </si>
+  <si>
+    <t>Malabar</t>
   </si>
 </sst>
 </file>
@@ -2749,11 +2872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65B61F-06D8-774A-83EF-A02372F67DE5}">
-  <dimension ref="A1:P510"/>
+  <dimension ref="A1:P533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E529" sqref="E529"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P534" sqref="P534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27524,6 +27647,1018 @@
         <v>395</v>
       </c>
     </row>
+    <row r="511" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A511" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B511" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D511" t="s">
+        <v>764</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F511" t="s">
+        <v>766</v>
+      </c>
+      <c r="H511">
+        <v>282</v>
+      </c>
+      <c r="I511" s="12">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>237</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+      <c r="M511">
+        <v>0</v>
+      </c>
+      <c r="N511">
+        <v>4</v>
+      </c>
+      <c r="O511">
+        <v>523</v>
+      </c>
+      <c r="P511" s="14">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A512" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B512" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D512" t="s">
+        <v>764</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F512" t="s">
+        <v>766</v>
+      </c>
+      <c r="H512">
+        <v>256</v>
+      </c>
+      <c r="I512" s="12">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>216</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+      <c r="M512">
+        <v>0</v>
+      </c>
+      <c r="N512">
+        <v>1</v>
+      </c>
+      <c r="O512">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A513" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D513" t="s">
+        <v>764</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F513" t="s">
+        <v>766</v>
+      </c>
+      <c r="H513">
+        <v>221</v>
+      </c>
+      <c r="I513" s="12">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>252</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+      <c r="M513">
+        <v>0</v>
+      </c>
+      <c r="N513">
+        <v>1</v>
+      </c>
+      <c r="O513">
+        <v>474</v>
+      </c>
+      <c r="P513" s="14">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A514" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B514" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D514" t="s">
+        <v>25</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F514" t="s">
+        <v>766</v>
+      </c>
+      <c r="H514">
+        <v>263</v>
+      </c>
+      <c r="I514" s="12">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>201</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+      <c r="M514">
+        <v>0</v>
+      </c>
+      <c r="N514">
+        <v>3</v>
+      </c>
+      <c r="O514">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A515" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B515" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D515" t="s">
+        <v>25</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F515" t="s">
+        <v>766</v>
+      </c>
+      <c r="H515">
+        <v>205</v>
+      </c>
+      <c r="I515" s="12">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>209</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+      <c r="M515">
+        <v>0</v>
+      </c>
+      <c r="N515">
+        <v>0</v>
+      </c>
+      <c r="O515">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A516" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B516" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D516" t="s">
+        <v>773</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F516" t="s">
+        <v>766</v>
+      </c>
+      <c r="H516">
+        <v>216</v>
+      </c>
+      <c r="I516" s="12">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>261</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516">
+        <v>6</v>
+      </c>
+      <c r="O516">
+        <v>483</v>
+      </c>
+      <c r="P516" s="14">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A517" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B517" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D517" t="s">
+        <v>773</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F517" t="s">
+        <v>766</v>
+      </c>
+      <c r="H517">
+        <v>242</v>
+      </c>
+      <c r="I517" s="12">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>184</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+      <c r="M517">
+        <v>0</v>
+      </c>
+      <c r="N517">
+        <v>0</v>
+      </c>
+      <c r="O517">
+        <v>426</v>
+      </c>
+      <c r="P517" s="14">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A518" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B518" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D518" t="s">
+        <v>773</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F518" t="s">
+        <v>766</v>
+      </c>
+      <c r="H518">
+        <v>1685</v>
+      </c>
+      <c r="I518" s="12">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>1560</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
+      </c>
+      <c r="M518">
+        <v>0</v>
+      </c>
+      <c r="N518">
+        <v>15</v>
+      </c>
+      <c r="O518">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A519" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B519" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D519" t="s">
+        <v>773</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F519" t="s">
+        <v>766</v>
+      </c>
+      <c r="H519">
+        <v>200</v>
+      </c>
+      <c r="I519" s="12">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>224</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
+      </c>
+      <c r="M519">
+        <v>0</v>
+      </c>
+      <c r="N519">
+        <v>0</v>
+      </c>
+      <c r="O519">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A520" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B520" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D520" t="s">
+        <v>782</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F520" t="s">
+        <v>5</v>
+      </c>
+      <c r="H520">
+        <v>253</v>
+      </c>
+      <c r="I520" s="12">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>299</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+      <c r="M520">
+        <v>0</v>
+      </c>
+      <c r="N520">
+        <v>2</v>
+      </c>
+      <c r="O520">
+        <v>554</v>
+      </c>
+      <c r="P520" s="14">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A521" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B521" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D521" t="s">
+        <v>782</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F521" t="s">
+        <v>5</v>
+      </c>
+      <c r="H521">
+        <v>191</v>
+      </c>
+      <c r="I521" s="12">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>141</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+      <c r="M521">
+        <v>0</v>
+      </c>
+      <c r="N521">
+        <v>2</v>
+      </c>
+      <c r="O521">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A522" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B522" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D522" t="s">
+        <v>782</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F522" t="s">
+        <v>5</v>
+      </c>
+      <c r="H522">
+        <v>199</v>
+      </c>
+      <c r="I522" s="12">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>139</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
+      </c>
+      <c r="M522">
+        <v>0</v>
+      </c>
+      <c r="N522">
+        <v>5</v>
+      </c>
+      <c r="O522">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A523" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B523" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D523" t="s">
+        <v>782</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F523" t="s">
+        <v>5</v>
+      </c>
+      <c r="H523">
+        <v>188</v>
+      </c>
+      <c r="I523" s="12">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>218</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
+      <c r="M523">
+        <v>0</v>
+      </c>
+      <c r="N523">
+        <v>4</v>
+      </c>
+      <c r="O523">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A524" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B524" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D524" t="s">
+        <v>782</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F524" t="s">
+        <v>5</v>
+      </c>
+      <c r="H524">
+        <v>122</v>
+      </c>
+      <c r="I524" s="12">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>218</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+      <c r="M524">
+        <v>0</v>
+      </c>
+      <c r="N524">
+        <v>0</v>
+      </c>
+      <c r="O524">
+        <v>340</v>
+      </c>
+      <c r="P524" s="14">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A525" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B525" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D525" t="s">
+        <v>790</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F525" t="s">
+        <v>800</v>
+      </c>
+      <c r="H525">
+        <v>110</v>
+      </c>
+      <c r="I525" s="12">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>222</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+      <c r="L525">
+        <v>0</v>
+      </c>
+      <c r="M525">
+        <v>0</v>
+      </c>
+      <c r="N525">
+        <v>2</v>
+      </c>
+      <c r="O525">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A526" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B526" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D526" t="s">
+        <v>790</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F526" t="s">
+        <v>800</v>
+      </c>
+      <c r="H526">
+        <v>2948</v>
+      </c>
+      <c r="I526" s="12">
+        <v>0</v>
+      </c>
+      <c r="J526" s="12">
+        <v>3021</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+      <c r="M526">
+        <v>0</v>
+      </c>
+      <c r="N526">
+        <v>30</v>
+      </c>
+      <c r="O526">
+        <v>5999</v>
+      </c>
+      <c r="P526" s="14">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A527" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B527" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D527" t="s">
+        <v>791</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F527" t="s">
+        <v>5</v>
+      </c>
+      <c r="H527">
+        <v>172</v>
+      </c>
+      <c r="I527" s="12">
+        <v>0</v>
+      </c>
+      <c r="J527" s="12">
+        <v>55</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+      <c r="L527">
+        <v>0</v>
+      </c>
+      <c r="M527">
+        <v>0</v>
+      </c>
+      <c r="N527">
+        <v>1</v>
+      </c>
+      <c r="O527">
+        <v>228</v>
+      </c>
+      <c r="P527" s="14">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A528" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B528" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D528" t="s">
+        <v>791</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F528" t="s">
+        <v>5</v>
+      </c>
+      <c r="H528">
+        <v>175</v>
+      </c>
+      <c r="I528" s="12">
+        <v>0</v>
+      </c>
+      <c r="J528" s="12">
+        <v>97</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+      <c r="L528">
+        <v>0</v>
+      </c>
+      <c r="M528">
+        <v>0</v>
+      </c>
+      <c r="N528">
+        <v>0</v>
+      </c>
+      <c r="O528">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A529" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B529" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D529" t="s">
+        <v>792</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F529" t="s">
+        <v>800</v>
+      </c>
+      <c r="H529">
+        <v>132</v>
+      </c>
+      <c r="I529" s="12">
+        <v>0</v>
+      </c>
+      <c r="J529" s="12">
+        <v>165</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+      <c r="L529">
+        <v>0</v>
+      </c>
+      <c r="M529">
+        <v>0</v>
+      </c>
+      <c r="N529">
+        <v>1</v>
+      </c>
+      <c r="O529">
+        <v>298</v>
+      </c>
+      <c r="P529" s="14">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A530" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B530" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C530" s="2">
+        <v>1968</v>
+      </c>
+      <c r="D530" t="s">
+        <v>793</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F530" t="s">
+        <v>801</v>
+      </c>
+      <c r="H530">
+        <v>100</v>
+      </c>
+      <c r="I530" s="12">
+        <v>0</v>
+      </c>
+      <c r="J530" s="12">
+        <v>199</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+      <c r="L530">
+        <v>0</v>
+      </c>
+      <c r="M530">
+        <v>0</v>
+      </c>
+      <c r="N530">
+        <v>0</v>
+      </c>
+      <c r="O530">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A531" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B531" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D531" t="s">
+        <v>793</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F531" t="s">
+        <v>802</v>
+      </c>
+      <c r="H531">
+        <v>584</v>
+      </c>
+      <c r="I531" s="12">
+        <v>0</v>
+      </c>
+      <c r="J531" s="12">
+        <v>229</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>0</v>
+      </c>
+      <c r="M531">
+        <v>0</v>
+      </c>
+      <c r="N531">
+        <v>0</v>
+      </c>
+      <c r="O531">
+        <v>813</v>
+      </c>
+      <c r="P531" s="14">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H532">
+        <v>162</v>
+      </c>
+      <c r="I532" s="12">
+        <v>0</v>
+      </c>
+      <c r="J532" s="12">
+        <v>156</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+      <c r="L532">
+        <v>0</v>
+      </c>
+      <c r="M532">
+        <v>0</v>
+      </c>
+      <c r="N532">
+        <v>0</v>
+      </c>
+      <c r="O532">
+        <v>318</v>
+      </c>
+      <c r="P532" s="14">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H533">
+        <v>198</v>
+      </c>
+      <c r="I533" s="12">
+        <v>0</v>
+      </c>
+      <c r="J533" s="12">
+        <v>118</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+      <c r="L533">
+        <v>0</v>
+      </c>
+      <c r="M533">
+        <v>0</v>
+      </c>
+      <c r="N533">
+        <v>0</v>
+      </c>
+      <c r="O533">
+        <v>316</v>
+      </c>
+      <c r="P533" s="14">
+        <v>899</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2010_Election_Results_TNT_clean.xlsx
+++ b/2010_Election_Results_TNT_clean.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyl/Desktop/Other/proj/Inclusion_by_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247F4C3-C37A-E940-9B54-C1AB00273525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D204701-1F2F-3847-B69D-B48FA94E36DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5280" yWindow="0" windowWidth="18500" windowHeight="16000" xr2:uid="{92ED79AB-027C-6E40-8484-828CF8073DBC}"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="11500" windowHeight="16000" xr2:uid="{92ED79AB-027C-6E40-8484-828CF8073DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2010_Election_Results_TNT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="955">
   <si>
     <t>Electoral_Dist</t>
   </si>
@@ -2444,6 +2444,462 @@
   </si>
   <si>
     <t>Malabar</t>
+  </si>
+  <si>
+    <t>1969_2</t>
+  </si>
+  <si>
+    <t>1970_02</t>
+  </si>
+  <si>
+    <t>1971_01</t>
+  </si>
+  <si>
+    <t>1971_02</t>
+  </si>
+  <si>
+    <t>1970_01</t>
+  </si>
+  <si>
+    <t>p.87</t>
+  </si>
+  <si>
+    <t>1976_01</t>
+  </si>
+  <si>
+    <t>1976_02</t>
+  </si>
+  <si>
+    <t>1977_01</t>
+  </si>
+  <si>
+    <t>1977_02</t>
+  </si>
+  <si>
+    <t>1978_01</t>
+  </si>
+  <si>
+    <t>1978_02</t>
+  </si>
+  <si>
+    <t>1979_01</t>
+  </si>
+  <si>
+    <t>1979_02</t>
+  </si>
+  <si>
+    <t>2050_01</t>
+  </si>
+  <si>
+    <t>2050_02</t>
+  </si>
+  <si>
+    <t>2050_03</t>
+  </si>
+  <si>
+    <t>2050_04</t>
+  </si>
+  <si>
+    <t>2050_05</t>
+  </si>
+  <si>
+    <t>2050_06</t>
+  </si>
+  <si>
+    <t>Diego Martin Central</t>
+  </si>
+  <si>
+    <t>*0060_01</t>
+  </si>
+  <si>
+    <t>0060_02</t>
+  </si>
+  <si>
+    <t>0065_</t>
+  </si>
+  <si>
+    <t>0086_01</t>
+  </si>
+  <si>
+    <t>0086_02</t>
+  </si>
+  <si>
+    <t>0095_02</t>
+  </si>
+  <si>
+    <t>0067_</t>
+  </si>
+  <si>
+    <t>0085_</t>
+  </si>
+  <si>
+    <t>0095_01</t>
+  </si>
+  <si>
+    <t>0100_01</t>
+  </si>
+  <si>
+    <t>0100_02</t>
+  </si>
+  <si>
+    <t>0102_</t>
+  </si>
+  <si>
+    <t>0103_01</t>
+  </si>
+  <si>
+    <t>0103_02</t>
+  </si>
+  <si>
+    <t>0111_01</t>
+  </si>
+  <si>
+    <t>0111_02</t>
+  </si>
+  <si>
+    <t>Diego Martin North/East</t>
+  </si>
+  <si>
+    <t>Diego Martin West</t>
+  </si>
+  <si>
+    <t>Fyzabad</t>
+  </si>
+  <si>
+    <t>La Brea</t>
+  </si>
+  <si>
+    <t>La Horquetta/Talparo</t>
+  </si>
+  <si>
+    <t>Laventille East/ Morvant</t>
+  </si>
+  <si>
+    <t>Laventille West</t>
+  </si>
+  <si>
+    <t>Lopinot/Bon Air West</t>
+  </si>
+  <si>
+    <t>p.160</t>
+  </si>
+  <si>
+    <t>0112_</t>
+  </si>
+  <si>
+    <t>0114_01</t>
+  </si>
+  <si>
+    <t>0114_02</t>
+  </si>
+  <si>
+    <t>0136_01</t>
+  </si>
+  <si>
+    <t>0136_02</t>
+  </si>
+  <si>
+    <t>0158_01</t>
+  </si>
+  <si>
+    <t>0158_02</t>
+  </si>
+  <si>
+    <t>0161_01</t>
+  </si>
+  <si>
+    <t>0161_02</t>
+  </si>
+  <si>
+    <t>0161_</t>
+  </si>
+  <si>
+    <t>0163_01</t>
+  </si>
+  <si>
+    <t>0163_02</t>
+  </si>
+  <si>
+    <t>0228_01</t>
+  </si>
+  <si>
+    <t>0228_02</t>
+  </si>
+  <si>
+    <t>0229_</t>
+  </si>
+  <si>
+    <t>0230_01</t>
+  </si>
+  <si>
+    <t>0230_02</t>
+  </si>
+  <si>
+    <t>0235_01</t>
+  </si>
+  <si>
+    <t>0240_01</t>
+  </si>
+  <si>
+    <t>0240_02</t>
+  </si>
+  <si>
+    <t>0090_</t>
+  </si>
+  <si>
+    <t>0125_</t>
+  </si>
+  <si>
+    <t>0126_</t>
+  </si>
+  <si>
+    <t>0127_</t>
+  </si>
+  <si>
+    <t>0128_01</t>
+  </si>
+  <si>
+    <t>0128_02</t>
+  </si>
+  <si>
+    <t>0131_</t>
+  </si>
+  <si>
+    <t>0132_01</t>
+  </si>
+  <si>
+    <t>0132_02</t>
+  </si>
+  <si>
+    <t>0132_03</t>
+  </si>
+  <si>
+    <t>0133_</t>
+  </si>
+  <si>
+    <t>0134_02</t>
+  </si>
+  <si>
+    <t>0134_01</t>
+  </si>
+  <si>
+    <t>0135_</t>
+  </si>
+  <si>
+    <t>0145_01</t>
+  </si>
+  <si>
+    <t>0145_02</t>
+  </si>
+  <si>
+    <t>0150_01</t>
+  </si>
+  <si>
+    <t>0150_02</t>
+  </si>
+  <si>
+    <t>0151_01</t>
+  </si>
+  <si>
+    <t>0151_02</t>
+  </si>
+  <si>
+    <t>0155_01</t>
+  </si>
+  <si>
+    <t>0155_02</t>
+  </si>
+  <si>
+    <t>*0157</t>
+  </si>
+  <si>
+    <t>0176_01</t>
+  </si>
+  <si>
+    <t>0176_02</t>
+  </si>
+  <si>
+    <t>0190_01</t>
+  </si>
+  <si>
+    <t>0180_01</t>
+  </si>
+  <si>
+    <t>0180_02</t>
+  </si>
+  <si>
+    <t>0190_02</t>
+  </si>
+  <si>
+    <t>*0195</t>
+  </si>
+  <si>
+    <t>0207_01</t>
+  </si>
+  <si>
+    <t>0207_02</t>
+  </si>
+  <si>
+    <t>0210_01</t>
+  </si>
+  <si>
+    <t>0210_02</t>
+  </si>
+  <si>
+    <t>0219_01</t>
+  </si>
+  <si>
+    <t>0219_02</t>
+  </si>
+  <si>
+    <t>0220_01</t>
+  </si>
+  <si>
+    <t>0220_02</t>
+  </si>
+  <si>
+    <t>0010_01</t>
+  </si>
+  <si>
+    <t>0010_02</t>
+  </si>
+  <si>
+    <t>0022_01</t>
+  </si>
+  <si>
+    <t>0022_02</t>
+  </si>
+  <si>
+    <t>0035_01</t>
+  </si>
+  <si>
+    <t>0035_02</t>
+  </si>
+  <si>
+    <t>43_01</t>
+  </si>
+  <si>
+    <t>43_02</t>
+  </si>
+  <si>
+    <t>0050_01</t>
+  </si>
+  <si>
+    <t>0950_02</t>
+  </si>
+  <si>
+    <t>*0052</t>
+  </si>
+  <si>
+    <t>0066_01</t>
+  </si>
+  <si>
+    <t>0066_02</t>
+  </si>
+  <si>
+    <t>0070_01</t>
+  </si>
+  <si>
+    <t>0070_02</t>
+  </si>
+  <si>
+    <t>0071_01</t>
+  </si>
+  <si>
+    <t>0071_02</t>
+  </si>
+  <si>
+    <t>0075_01</t>
+  </si>
+  <si>
+    <t>0075_02</t>
+  </si>
+  <si>
+    <t>0081_01</t>
+  </si>
+  <si>
+    <t>81-02</t>
+  </si>
+  <si>
+    <t>84_1</t>
+  </si>
+  <si>
+    <t>84_2</t>
+  </si>
+  <si>
+    <t>105_1</t>
+  </si>
+  <si>
+    <t>105_2</t>
+  </si>
+  <si>
+    <t>108_1</t>
+  </si>
+  <si>
+    <t>108_2</t>
+  </si>
+  <si>
+    <t>115_1</t>
+  </si>
+  <si>
+    <t>115_2</t>
+  </si>
+  <si>
+    <t>0121_1</t>
+  </si>
+  <si>
+    <t>0121_2</t>
+  </si>
+  <si>
+    <t>4375_01</t>
+  </si>
+  <si>
+    <t>4375_02</t>
+  </si>
+  <si>
+    <t>4395_01</t>
+  </si>
+  <si>
+    <t>4400_01</t>
+  </si>
+  <si>
+    <t>4400_02</t>
+  </si>
+  <si>
+    <t>4400_03</t>
+  </si>
+  <si>
+    <t>4405_01</t>
+  </si>
+  <si>
+    <t>4405_03</t>
+  </si>
+  <si>
+    <t>44405_04</t>
+  </si>
+  <si>
+    <t>4405_05</t>
+  </si>
+  <si>
+    <t>4410_01</t>
+  </si>
+  <si>
+    <t>4410_02</t>
+  </si>
+  <si>
+    <t>4425_01</t>
+  </si>
+  <si>
+    <t>4425_02</t>
+  </si>
+  <si>
+    <t>4435_01</t>
+  </si>
+  <si>
+    <t>p.119</t>
+  </si>
+  <si>
+    <t>p.102</t>
   </si>
 </sst>
 </file>
@@ -2872,11 +3328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65B61F-06D8-774A-83EF-A02372F67DE5}">
-  <dimension ref="A1:P533"/>
+  <dimension ref="A1:P1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P534" sqref="P534"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H650" sqref="H650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28602,6 +29058,18 @@
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A532" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B532" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D532" t="s">
+        <v>808</v>
+      </c>
       <c r="H532">
         <v>162</v>
       </c>
@@ -28631,6 +29099,15 @@
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A533" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B533" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="H533">
         <v>198</v>
       </c>
@@ -28657,6 +29134,5184 @@
       </c>
       <c r="P533" s="14">
         <v>899</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A534" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B534" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="H534">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A535" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B535" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="H535">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A536" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B536" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="H536">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A537" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B537" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C537" s="2">
+        <v>1972</v>
+      </c>
+      <c r="H537">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A538" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B538" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C538" s="2">
+        <v>1973</v>
+      </c>
+      <c r="H538">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A539" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B539" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C539" s="2">
+        <v>1975</v>
+      </c>
+      <c r="H539">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A540" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B540" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="H540">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A541" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B541" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="H541">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A542" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B542" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="H542">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A543" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B543" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H543">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A544" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B544" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H544">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B545" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H545">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B546" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="H546">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B547" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="H547">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B548" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C548" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H548">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B549" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C549" s="2">
+        <v>1982</v>
+      </c>
+      <c r="H549">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B550" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C550" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H550">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B551" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C551" s="2">
+        <v>2045</v>
+      </c>
+      <c r="H551">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B552" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C552" s="2">
+        <v>2046</v>
+      </c>
+      <c r="H552">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B553" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C553" s="2">
+        <v>2047</v>
+      </c>
+      <c r="H553">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B554" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="H554">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B555" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H555">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B556" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="H556">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B557" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="H557">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B558" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="H558">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B559" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H559">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B560" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C560" s="2">
+        <v>51</v>
+      </c>
+      <c r="H560">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B561" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C561" s="2">
+        <v>53</v>
+      </c>
+      <c r="H561">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B562" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C562" s="2">
+        <v>54</v>
+      </c>
+      <c r="H562">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B563" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C563" s="2">
+        <v>55</v>
+      </c>
+      <c r="H563">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B564" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C564" s="2">
+        <v>56</v>
+      </c>
+      <c r="H564">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B565" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H565">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B566" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H566">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B567" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="H567">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B568" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="H568">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B569" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="H569">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B570" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="H570">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B571" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="H571">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B572" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="H572">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B573" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="H573">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B574" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H574">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B575" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="H575">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B576" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="H576">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B577" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="H577">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B578" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H578">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B579" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C579" s="2">
+        <v>104</v>
+      </c>
+      <c r="H579">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B580" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C580" s="2">
+        <v>110</v>
+      </c>
+      <c r="H580">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B581" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H581">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B582" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="H582">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B583" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="H583">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B584" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C584" s="2">
+        <v>113</v>
+      </c>
+      <c r="H584">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B585" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="H585">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B586" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="H586">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B587" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C587" s="2">
+        <v>116</v>
+      </c>
+      <c r="H587">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B588" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C588" s="2">
+        <v>117</v>
+      </c>
+      <c r="H588">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B589" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C589" s="2">
+        <v>118</v>
+      </c>
+      <c r="H589">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A590" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B590" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C590" s="2">
+        <v>130</v>
+      </c>
+      <c r="H590">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B591" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="H591">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B592" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="H592">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B593" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H593">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B594" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="H594">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B595" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C595" s="2">
+        <v>159</v>
+      </c>
+      <c r="H595">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B596" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C596" s="2">
+        <v>160</v>
+      </c>
+      <c r="H596">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B597" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="H597">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B598" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="H598">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B599" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="H599">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B600" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="H600">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B601" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="H601">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B602" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C602" s="2">
+        <v>164</v>
+      </c>
+      <c r="H602">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B603" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C603" s="2">
+        <v>226</v>
+      </c>
+      <c r="H603">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B604" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C604" s="2">
+        <v>227</v>
+      </c>
+      <c r="H604">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B605" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H605">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B606" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="H606">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B607" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="H607">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B608" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="H608">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B609" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="H609">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B610" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C610" s="2">
+        <v>231</v>
+      </c>
+      <c r="H610">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B611" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C611" s="2">
+        <v>232</v>
+      </c>
+      <c r="H611">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B612" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="H612">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A613" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B613" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="H613">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A614" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B614" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H614">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B615" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="H615">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B616" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="H616">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A617" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B617" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="H617">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A618" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B618" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="H618">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A619" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B619" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H619">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A620" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B620" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="H620">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A621" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B621" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C621" s="2">
+        <v>129</v>
+      </c>
+      <c r="H621">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A622" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B622" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="H622">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A623" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B623" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H623">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A624" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B624" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H624">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A625" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B625" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="H625">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A626" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B626" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H626">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B627" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="H627">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A628" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B628" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="H628">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A629" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B629" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="H629">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A630" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B630" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C630" s="2">
+        <v>137</v>
+      </c>
+      <c r="H630">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A631" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B631" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C631" s="2">
+        <v>140</v>
+      </c>
+      <c r="H631">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B632" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C632" s="2">
+        <v>141</v>
+      </c>
+      <c r="H632">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A633" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B633" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="H633">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A634" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B634" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="H634">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A635" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B635" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C635" s="2">
+        <v>146</v>
+      </c>
+      <c r="H635">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A636" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B636" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="H636">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A637" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B637" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="H637">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A638" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B638" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="H638">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B639" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="H639">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A640" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B640" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C640" s="2">
+        <v>152</v>
+      </c>
+      <c r="H640">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A641" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B641" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C641" s="2">
+        <v>153</v>
+      </c>
+      <c r="H641">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A642" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B642" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="H642">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A643" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B643" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="H643">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A644" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B644" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C644" s="2">
+        <v>156</v>
+      </c>
+      <c r="H644">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A645" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B645" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="H645">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A646" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B646" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C646" s="2">
+        <v>165</v>
+      </c>
+      <c r="H646">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A647" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B647" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C647" s="2">
+        <v>166</v>
+      </c>
+      <c r="H647">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A648" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B648" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C648" s="2">
+        <v>167</v>
+      </c>
+      <c r="H648">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A649" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B649" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C649" s="2">
+        <v>168</v>
+      </c>
+      <c r="H649" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A650" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B650" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C650" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A651" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B651" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C651" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A652" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B652" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C652" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A653" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B653" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A654" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B654" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A655" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B655" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A656" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B656" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B657" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C657" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B658" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B659" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B660" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B661" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C661" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B662" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B663" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B664" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B665" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B666" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C666" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B667" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C667" s="2">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B668" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C668" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B669" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B670" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B671" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B672" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B673" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C673" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B674" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C674" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B675" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C675" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B676" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B677" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B678" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C678" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B679" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C679" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B680" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C680" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B681" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C681" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B682" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B683" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B684" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C684" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B685" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C685" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B686" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C686" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B687" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C687" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B688" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C688" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B689" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C689" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B690" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C690" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B691" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B692" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B693" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C693" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B694" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C694" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B695" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C695" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B696" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C696" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B697" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B698" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B699" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C699" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B700" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C700" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B701" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C701" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B702" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B703" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B704" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B705" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B706" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B707" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B708" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B709" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B710" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B711" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C711" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B712" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B713" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B714" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C714" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B715" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C715" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B716" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C716" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B717" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B718" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B719" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C719" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B720" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C720" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B721" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B722" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B723" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B724" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B725" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C725" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B726" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C726" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B727" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B728" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B729" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C729" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B730" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B731" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B732" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C732" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B733" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B734" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B735" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C735" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B736" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C736" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B737" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C737" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B738" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C738" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B739" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C739" s="2">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B740" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B741" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B742" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C742" s="2">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B743" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C743" s="2">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B744" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C744" s="2">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B745" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C745" s="2">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B746" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C746" s="2">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B747" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C747" s="2">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B748" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C748" s="2">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B749" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B750" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B751" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B752" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B753" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B754" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B755" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B756" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B757" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B758" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B759" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B760" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C760" s="2">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B761" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C761" s="2">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B762" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C762" s="2">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B763" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B764" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B765" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C765" s="2">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B766" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B767" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B768" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B769" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B770" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B771" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B772" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B773" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B774" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B775" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B776" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B777" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B778" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B779" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B780" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B781" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B782" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B783" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B784" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B785" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B786" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B787" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B788" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B789" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B790" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B791" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B792" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B793" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B794" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B795" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B796" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B797" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B798" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B799" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B800" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B801" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B802" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B803" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B804" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B805" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B806" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B807" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B808" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B809" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B810" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B811" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B812" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B813" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B814" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B815" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B816" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B817" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B818" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B819" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B820" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B821" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B822" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B823" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B824" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B825" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B826" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B827" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B828" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B829" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B830" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B831" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B832" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B833" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B834" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B835" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B836" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B837" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B838" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B839" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B840" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B841" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B842" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B843" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B844" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B845" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B846" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B847" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B848" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B849" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B850" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B851" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B852" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B853" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B854" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B855" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B856" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B857" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B858" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B859" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B860" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B861" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B862" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B863" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B864" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B865" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B866" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B867" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B868" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B869" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B870" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B871" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B872" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B873" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B874" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B875" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B876" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B877" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B878" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B879" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B880" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B881" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B882" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B883" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B884" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B885" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B886" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B887" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B888" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B889" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B890" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B891" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B892" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B893" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B894" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B895" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B896" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B897" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B898" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B899" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B900" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B901" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B902" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B903" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B904" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B905" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B906" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B907" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B908" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B909" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B910" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B911" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B912" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B913" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B914" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B915" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B916" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B917" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B918" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B919" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B920" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B921" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B922" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B923" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B924" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B925" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B926" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B927" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B928" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B929" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B930" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B931" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B932" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B933" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B934" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B935" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B936" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B937" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B938" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B939" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B940" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B941" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B942" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B943" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B944" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B945" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B946" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B947" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B948" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B949" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B950" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B951" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B952" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B953" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B954" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B955" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B956" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B957" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B958" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B959" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B960" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B961" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B962" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B963" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B964" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B965" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B966" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B967" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B968" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B969" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B970" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B971" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B972" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B973" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B974" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B975" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B976" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B977" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B978" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B979" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B980" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B981" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B982" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B983" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B984" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B985" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B986" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B987" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B988" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B989" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B990" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B991" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B992" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B993" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B994" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B995" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B996" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B997" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B998" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B999" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1000" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1001" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1002" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1003" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1004" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1005" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1006" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1007" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1008" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1009" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1010" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1011" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1012" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1013" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1014" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1015" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1016" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1017" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1018" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1019" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1020" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1021" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1022" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1023" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1024" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1025" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1026" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1027" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1028" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1029" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1030" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1031" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1032" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1033" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1034" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1035" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1036" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1037" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1038" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1039" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1040" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1041" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1042" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1043" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1044" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1045" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1046" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1047" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1048" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1049" s="12">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
